--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thbs1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thbs1-Lrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H2">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I2">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J2">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N2">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q2">
-        <v>2889.547526679965</v>
+        <v>43.56044216375299</v>
       </c>
       <c r="R2">
-        <v>26005.92774011969</v>
+        <v>392.0439794737769</v>
       </c>
       <c r="S2">
-        <v>0.01357812052046301</v>
+        <v>0.0005620617922816941</v>
       </c>
       <c r="T2">
-        <v>0.01357812052046301</v>
+        <v>0.0005620617922816941</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H3">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I3">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J3">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P3">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q3">
-        <v>22163.05242499987</v>
+        <v>4115.366314893337</v>
       </c>
       <c r="R3">
-        <v>199467.4718249989</v>
+        <v>37038.29683404004</v>
       </c>
       <c r="S3">
-        <v>0.1041452317878135</v>
+        <v>0.05310070449122764</v>
       </c>
       <c r="T3">
-        <v>0.1041452317878135</v>
+        <v>0.05310070449122764</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H4">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I4">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J4">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N4">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q4">
-        <v>3685.07743976359</v>
+        <v>659.4013624780789</v>
       </c>
       <c r="R4">
-        <v>33165.69695787231</v>
+        <v>5934.61226230271</v>
       </c>
       <c r="S4">
-        <v>0.01731635321528702</v>
+        <v>0.008508277079331847</v>
       </c>
       <c r="T4">
-        <v>0.01731635321528702</v>
+        <v>0.008508277079331847</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H5">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I5">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J5">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N5">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q5">
-        <v>13582.37675739719</v>
+        <v>1858.605390114692</v>
       </c>
       <c r="R5">
-        <v>122241.3908165747</v>
+        <v>16727.44851103222</v>
       </c>
       <c r="S5">
-        <v>0.06382423090931934</v>
+        <v>0.02398164538333231</v>
       </c>
       <c r="T5">
-        <v>0.06382423090931932</v>
+        <v>0.02398164538333231</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>397.634285</v>
       </c>
       <c r="I6">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J6">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N6">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q6">
-        <v>3132.801168529889</v>
+        <v>254.3409826123238</v>
       </c>
       <c r="R6">
-        <v>28195.210516769</v>
+        <v>2289.068843510915</v>
       </c>
       <c r="S6">
-        <v>0.01472118089084384</v>
+        <v>0.003281769914097068</v>
       </c>
       <c r="T6">
-        <v>0.01472118089084384</v>
+        <v>0.003281769914097069</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>397.634285</v>
       </c>
       <c r="I7">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J7">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P7">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q7">
         <v>24028.82662221007</v>
@@ -883,10 +883,10 @@
         <v>216259.4395998906</v>
       </c>
       <c r="S7">
-        <v>0.1129125930025979</v>
+        <v>0.3100447260598211</v>
       </c>
       <c r="T7">
-        <v>0.1129125930025979</v>
+        <v>0.3100447260598211</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>397.634285</v>
       </c>
       <c r="I8">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J8">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N8">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q8">
-        <v>3995.301964345625</v>
+        <v>3850.116806393094</v>
       </c>
       <c r="R8">
-        <v>35957.71767911062</v>
+        <v>34651.05125753785</v>
       </c>
       <c r="S8">
-        <v>0.01877411293174271</v>
+        <v>0.0496781815152432</v>
       </c>
       <c r="T8">
-        <v>0.01877411293174271</v>
+        <v>0.04967818151524322</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>397.634285</v>
       </c>
       <c r="I9">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J9">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N9">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q9">
-        <v>14725.79543478812</v>
+        <v>10852.03679598289</v>
       </c>
       <c r="R9">
-        <v>132532.1589130931</v>
+        <v>97668.33116384606</v>
       </c>
       <c r="S9">
-        <v>0.06919720936480814</v>
+        <v>0.1400241813094472</v>
       </c>
       <c r="T9">
-        <v>0.06919720936480814</v>
+        <v>0.1400241813094473</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H10">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I10">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J10">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N10">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q10">
-        <v>942.3567318182487</v>
+        <v>80.48918689508076</v>
       </c>
       <c r="R10">
-        <v>8481.210586364239</v>
+        <v>724.4026820557268</v>
       </c>
       <c r="S10">
-        <v>0.004428178861830152</v>
+        <v>0.001038554578382812</v>
       </c>
       <c r="T10">
-        <v>0.004428178861830152</v>
+        <v>0.001038554578382812</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H11">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I11">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J11">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P11">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q11">
-        <v>7227.948825031591</v>
+        <v>7604.203998112749</v>
       </c>
       <c r="R11">
-        <v>65051.53942528432</v>
+        <v>68437.83598301474</v>
       </c>
       <c r="S11">
-        <v>0.03396447345331647</v>
+        <v>0.0981172898105092</v>
       </c>
       <c r="T11">
-        <v>0.03396447345331646</v>
+        <v>0.0981172898105092</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H12">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I12">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J12">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N12">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q12">
-        <v>1201.799762962471</v>
+        <v>1218.414618103507</v>
       </c>
       <c r="R12">
-        <v>10816.19786666224</v>
+        <v>10965.73156293156</v>
       </c>
       <c r="S12">
-        <v>0.005647313938358225</v>
+        <v>0.01572124317331473</v>
       </c>
       <c r="T12">
-        <v>0.005647313938358225</v>
+        <v>0.01572124317331473</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H13">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I13">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J13">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N13">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q13">
-        <v>4429.566931585057</v>
+        <v>3434.254318328003</v>
       </c>
       <c r="R13">
-        <v>39866.10238426551</v>
+        <v>30908.28886495202</v>
       </c>
       <c r="S13">
-        <v>0.02081474455608803</v>
+        <v>0.04431229439899426</v>
       </c>
       <c r="T13">
-        <v>0.02081474455608803</v>
+        <v>0.04431229439899426</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H14">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I14">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J14">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N14">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q14">
-        <v>7565.568782117884</v>
+        <v>127.2284560295907</v>
       </c>
       <c r="R14">
-        <v>68090.11903906096</v>
+        <v>1145.056104266316</v>
       </c>
       <c r="S14">
-        <v>0.03555096560307475</v>
+        <v>0.00164163287774725</v>
       </c>
       <c r="T14">
-        <v>0.03555096560307475</v>
+        <v>0.00164163287774725</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H15">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I15">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J15">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>543.865174</v>
       </c>
       <c r="O15">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P15">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q15">
-        <v>58028.49615547862</v>
+        <v>12019.88951975677</v>
       </c>
       <c r="R15">
-        <v>522256.4653993075</v>
+        <v>108179.0056778109</v>
       </c>
       <c r="S15">
-        <v>0.2726786485237762</v>
+        <v>0.1550930227270306</v>
       </c>
       <c r="T15">
-        <v>0.2726786485237762</v>
+        <v>0.1550930227270306</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H16">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I16">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J16">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N16">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q16">
-        <v>9648.46799733921</v>
+        <v>1925.935851075999</v>
       </c>
       <c r="R16">
-        <v>86836.2119760529</v>
+        <v>17333.42265968399</v>
       </c>
       <c r="S16">
-        <v>0.04533860754878392</v>
+        <v>0.02485041249595256</v>
       </c>
       <c r="T16">
-        <v>0.04533860754878392</v>
+        <v>0.02485041249595256</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H17">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I17">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J17">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N17">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q17">
-        <v>35562.10951158682</v>
+        <v>5428.491594819802</v>
       </c>
       <c r="R17">
-        <v>320058.9856042814</v>
+        <v>48856.42435337822</v>
       </c>
       <c r="S17">
-        <v>0.1671080348918968</v>
+        <v>0.07004400239328645</v>
       </c>
       <c r="T17">
-        <v>0.1671080348918968</v>
+        <v>0.07004400239328645</v>
       </c>
     </row>
   </sheetData>
